--- a/data/trans_dic/P05A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3861058344627079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2315821036752847</v>
+        <v>0.2315821036752848</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3346060609703765</v>
@@ -697,7 +697,7 @@
         <v>0.396468546780036</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2375133557486316</v>
+        <v>0.2375133557486317</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2773875702510281</v>
+        <v>0.2738829928140662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4027928005856931</v>
+        <v>0.4032303223364799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3354236984402044</v>
+        <v>0.3399913313218921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1970777002337077</v>
+        <v>0.194499587062216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2777683483708414</v>
+        <v>0.2804123990522367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3729465052739488</v>
+        <v>0.3706075813483979</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3566250858231749</v>
+        <v>0.3538550969865289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2100166760338902</v>
+        <v>0.2092128828839924</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2931220150692483</v>
+        <v>0.2916801454470551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4020193779521137</v>
+        <v>0.3988341172672952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3588772736126208</v>
+        <v>0.3577916799308289</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2110993620320413</v>
+        <v>0.2130502874519028</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3673707151518815</v>
+        <v>0.3632663872125013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4964530923477506</v>
+        <v>0.4948282245567001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4324901219785988</v>
+        <v>0.4378683250404286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2723511773353605</v>
+        <v>0.2680844351233141</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3846209342246175</v>
+        <v>0.3912303203743586</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4833334020470748</v>
+        <v>0.4846653207526891</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4703022434998033</v>
+        <v>0.4717171324400912</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2817300501361359</v>
+        <v>0.2835603420508166</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3617540238121791</v>
+        <v>0.3595889582537311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4790363663867517</v>
+        <v>0.4781436002327875</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4350214690078712</v>
+        <v>0.4350696055914114</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2658621686350773</v>
+        <v>0.2648978380424784</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2639522097781724</v>
+        <v>0.2666858111444813</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3538866307686134</v>
+        <v>0.3578509961949635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3195992283739645</v>
+        <v>0.3152022556129742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1357620400618722</v>
+        <v>0.1367995482478632</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2524733255173947</v>
+        <v>0.2518331076303896</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3574210297834477</v>
+        <v>0.3612491089268132</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3415823801947704</v>
+        <v>0.337671229209128</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2057780421047076</v>
+        <v>0.2094858433439553</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2737465122407819</v>
+        <v>0.2728385591786008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3725215504225083</v>
+        <v>0.3756409343497677</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3421751217695982</v>
+        <v>0.3416339933206184</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1819261920861252</v>
+        <v>0.1797981338760607</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3622789804490382</v>
+        <v>0.3636907508332071</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4576591316875002</v>
+        <v>0.4566477933870619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4265944325248148</v>
+        <v>0.4185625244024616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2068871962928927</v>
+        <v>0.2065546716823702</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3472863174753404</v>
+        <v>0.3456086260448475</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.473037891066739</v>
+        <v>0.478015633132696</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4445471186914268</v>
+        <v>0.4442356030992753</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2824336767568231</v>
+        <v>0.2815557586898187</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3436461799706841</v>
+        <v>0.3399431431589286</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4505533400600567</v>
+        <v>0.452143267154522</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4098711261264056</v>
+        <v>0.4144241675085198</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2356655481485744</v>
+        <v>0.2313901739010913</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3608305379403387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2102856295248339</v>
+        <v>0.2102856295248338</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3738261337880738</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2558255280251998</v>
+        <v>0.2548443749271389</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3721335148676669</v>
+        <v>0.3705636571885687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3186709533901611</v>
+        <v>0.3178464629226976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1743958751310231</v>
+        <v>0.173602367274203</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2943913896499386</v>
+        <v>0.3092342589470192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3373134412407608</v>
+        <v>0.3390640024147764</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2760693225827247</v>
+        <v>0.2707726665191189</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1592352682752839</v>
+        <v>0.1509734469534476</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2787396184052285</v>
+        <v>0.2805239289546725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3754472096960849</v>
+        <v>0.3759135791492143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3220395668035673</v>
+        <v>0.3205405907642782</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1768226717830391</v>
+        <v>0.177208908952511</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3387608693106615</v>
+        <v>0.3354165470730001</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4537439600975873</v>
+        <v>0.4520344306270256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.406783700006366</v>
+        <v>0.4039779241378579</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2544508842552703</v>
+        <v>0.2533277569020226</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4443816705992203</v>
+        <v>0.4564331546311821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4688407779333779</v>
+        <v>0.4602145015162382</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4297866626262551</v>
+        <v>0.4230867998708651</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2515982414732717</v>
+        <v>0.2569422570482887</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3492162078560275</v>
+        <v>0.3512248941146884</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4407188850490188</v>
+        <v>0.4405027256820588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.395034436969727</v>
+        <v>0.3959194534441813</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2398584092950964</v>
+        <v>0.2404915215994607</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2633078006193754</v>
+        <v>0.2660298131980948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3727131965020551</v>
+        <v>0.3702037380612459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3315631065069528</v>
+        <v>0.3315259130866899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.138316423982202</v>
+        <v>0.1394228394755918</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3203828672289326</v>
+        <v>0.3209706673075365</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3602049577812153</v>
+        <v>0.3635871453975964</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3385423841564802</v>
+        <v>0.3393099359109995</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1862730902882293</v>
+        <v>0.1884591279637191</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2937488987922963</v>
+        <v>0.2940204055436269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3757650026154715</v>
+        <v>0.3764406166327489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3448241908430864</v>
+        <v>0.3395960861687105</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.166423480346538</v>
+        <v>0.1645757574870024</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3131708422269845</v>
+        <v>0.3167841390543079</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4321067927208061</v>
+        <v>0.4304878939767909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3869205261881402</v>
+        <v>0.3902474843999819</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1847787244946813</v>
+        <v>0.1864661295439779</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3914696906628737</v>
+        <v>0.3925414284510085</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.437393659550743</v>
+        <v>0.4337445292639108</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4078995028536149</v>
+        <v>0.4072290735870514</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2343937467449016</v>
+        <v>0.2384858405138739</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3351303232751257</v>
+        <v>0.3352738970420514</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4214651692231958</v>
+        <v>0.4231519024953366</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.387098902899387</v>
+        <v>0.3846873118064874</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1998909173592932</v>
+        <v>0.1996241885844301</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.356801479082772</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1944366002562779</v>
+        <v>0.1944366002562778</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2712963795481323</v>
+        <v>0.265722608969802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.300768271298637</v>
+        <v>0.3001147839851611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3121476383886811</v>
+        <v>0.3047651250699266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1490237153105287</v>
+        <v>0.1553904554883002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3387201625104099</v>
+        <v>0.3421065482366297</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3303860375802519</v>
+        <v>0.3263011547341053</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3305804564398538</v>
+        <v>0.3313015457623247</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.176440516916801</v>
+        <v>0.1762605332371328</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3299724519505852</v>
+        <v>0.3281922904259424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3256269977972488</v>
+        <v>0.3279913260760623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3305589210646397</v>
+        <v>0.3287238540778964</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1734964019969404</v>
+        <v>0.174182886799159</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3699426448979204</v>
+        <v>0.3698670282889162</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3837240620985633</v>
+        <v>0.3851159664419561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3849853138110906</v>
+        <v>0.3812280241346626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2220381245595059</v>
+        <v>0.223132614673326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.422092654838126</v>
+        <v>0.423773449651669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3999003370292342</v>
+        <v>0.3987491639292044</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4050334083848474</v>
+        <v>0.4012202825501437</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2248685441429274</v>
+        <v>0.2266356676508623</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3940697200609629</v>
+        <v>0.3909398532913934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3822307111556316</v>
+        <v>0.3811469113049223</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3817017715585893</v>
+        <v>0.3843373622939851</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2140705345052176</v>
+        <v>0.2155195215257805</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1889300355940217</v>
+        <v>0.1821155018997062</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3074642518330112</v>
+        <v>0.3013594780753168</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2894912222715612</v>
+        <v>0.2912427376516749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1143113661912509</v>
+        <v>0.1064293542364333</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3050504999821251</v>
+        <v>0.3063219165127432</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3816615000799966</v>
+        <v>0.3805694147715797</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3159779278796902</v>
+        <v>0.3176407926706939</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1190047765190545</v>
+        <v>0.1226420897246055</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2897508875113961</v>
+        <v>0.2897939814449986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.375058997843539</v>
+        <v>0.3763021527487214</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3180569184983086</v>
+        <v>0.3191475089860565</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1271905413380245</v>
+        <v>0.127505905555572</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2836375663268069</v>
+        <v>0.2825642044463009</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4206389024172493</v>
+        <v>0.419689242693813</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3958904510497968</v>
+        <v>0.4049144981926448</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.26453144275877</v>
+        <v>0.2614184289281897</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3569252020617342</v>
+        <v>0.3582086716267099</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4381108354270796</v>
+        <v>0.4398308617845049</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3757087072142116</v>
+        <v>0.3763059545202974</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1693939139722969</v>
+        <v>0.1728957957555672</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3358758226955966</v>
+        <v>0.3359783468074554</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4296704561814279</v>
+        <v>0.4289656159290431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3724171388688911</v>
+        <v>0.3712446643121465</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1756883171102953</v>
+        <v>0.1802526865021557</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2789087198618763</v>
+        <v>0.278370670528951</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3818992033603303</v>
+        <v>0.3780690998102093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3427195057896917</v>
+        <v>0.3442835541862694</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1715580691677386</v>
+        <v>0.1716376919771501</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3283160487803773</v>
+        <v>0.3272537368921136</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.38236194352265</v>
+        <v>0.3818665686931972</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3505710383297463</v>
+        <v>0.3508416586687764</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1888930188073986</v>
+        <v>0.1887494271271738</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3082168178035197</v>
+        <v>0.3088697903231003</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3865621404603121</v>
+        <v>0.3869889639115495</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3516061558585313</v>
+        <v>0.351525635670753</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1845827024633998</v>
+        <v>0.183227221436622</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3130290986733634</v>
+        <v>0.311324608055339</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4175905387597749</v>
+        <v>0.4150192224455784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3773562055746425</v>
+        <v>0.3780890236341463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1995268571420272</v>
+        <v>0.2000677123446829</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.361091266879757</v>
+        <v>0.3610816663867235</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.415182342118433</v>
+        <v>0.4156244067976604</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.384489297216489</v>
+        <v>0.3842753035485362</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2133241502200952</v>
+        <v>0.2129833460399103</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3316624261657264</v>
+        <v>0.3313866840036556</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4109059358322651</v>
+        <v>0.4111830112780805</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3762491057681346</v>
+        <v>0.3744884304604654</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2036748698855554</v>
+        <v>0.2021810534310164</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>131420</v>
+        <v>129759</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>176105</v>
+        <v>176297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>143928</v>
+        <v>145888</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>108515</v>
+        <v>107095</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>85186</v>
+        <v>85997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>117275</v>
+        <v>116539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>123769</v>
+        <v>122807</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>102274</v>
+        <v>101882</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>228769</v>
+        <v>227644</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>302184</v>
+        <v>299790</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>278542</v>
+        <v>277699</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>219036</v>
+        <v>221060</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>174051</v>
+        <v>172107</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>217055</v>
+        <v>216344</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>185578</v>
+        <v>187886</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>149961</v>
+        <v>147612</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>117956</v>
+        <v>119983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>151986</v>
+        <v>152405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>163221</v>
+        <v>163712</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>137197</v>
+        <v>138088</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>282333</v>
+        <v>280644</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>360075</v>
+        <v>359404</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>337641</v>
+        <v>337678</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>275858</v>
+        <v>274857</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>96853</v>
+        <v>97856</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148207</v>
+        <v>149867</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>120561</v>
+        <v>118903</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65602</v>
+        <v>66103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>93886</v>
+        <v>93648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120198</v>
+        <v>121485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>127162</v>
+        <v>125706</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>87074</v>
+        <v>88642</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>202244</v>
+        <v>201573</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>281287</v>
+        <v>283642</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>256460</v>
+        <v>256055</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>164890</v>
+        <v>162961</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>132932</v>
+        <v>133451</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191666</v>
+        <v>191243</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>160923</v>
+        <v>157893</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99970</v>
+        <v>99810</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>129144</v>
+        <v>128520</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>159079</v>
+        <v>160753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>165493</v>
+        <v>165377</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>119510</v>
+        <v>119138</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>253885</v>
+        <v>251150</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>340208</v>
+        <v>341408</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>307198</v>
+        <v>310611</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>213597</v>
+        <v>209722</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>138757</v>
+        <v>138225</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>233652</v>
+        <v>232667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>166319</v>
+        <v>165889</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>82247</v>
+        <v>81873</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>49394</v>
+        <v>51884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>87403</v>
+        <v>87857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45861</v>
+        <v>44982</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29856</v>
+        <v>28307</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>197953</v>
+        <v>199220</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>333017</v>
+        <v>333431</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>221575</v>
+        <v>220543</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>116545</v>
+        <v>116800</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>183740</v>
+        <v>181926</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>284893</v>
+        <v>283820</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>212306</v>
+        <v>210842</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>120002</v>
+        <v>119472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74559</v>
+        <v>76581</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121484</v>
+        <v>119249</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>71397</v>
+        <v>70284</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47174</v>
+        <v>48176</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>248003</v>
+        <v>249430</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>390912</v>
+        <v>390721</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>271798</v>
+        <v>272407</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>158093</v>
+        <v>158510</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>326063</v>
+        <v>329434</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>430536</v>
+        <v>427637</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>381178</v>
+        <v>381135</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>156398</v>
+        <v>157649</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>228845</v>
+        <v>229265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>275772</v>
+        <v>278361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>279594</v>
+        <v>280228</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>160420</v>
+        <v>162303</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>573580</v>
+        <v>574110</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>721745</v>
+        <v>723043</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>681205</v>
+        <v>670877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>331505</v>
+        <v>327825</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>387810</v>
+        <v>392285</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>499143</v>
+        <v>497273</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>444819</v>
+        <v>448643</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>208934</v>
+        <v>210842</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>279621</v>
+        <v>280386</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>334867</v>
+        <v>332074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>336874</v>
+        <v>336321</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>201862</v>
+        <v>205387</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>654382</v>
+        <v>654663</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>809523</v>
+        <v>812763</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>764719</v>
+        <v>759955</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>398170</v>
+        <v>397639</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>95104</v>
+        <v>93150</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>153571</v>
+        <v>153237</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>193752</v>
+        <v>189170</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>84640</v>
+        <v>88256</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>192648</v>
+        <v>194574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>251280</v>
+        <v>248174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>243707</v>
+        <v>244238</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>146596</v>
+        <v>146446</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>303346</v>
+        <v>301709</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>413925</v>
+        <v>416930</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>448871</v>
+        <v>446379</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>242689</v>
+        <v>243649</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>129685</v>
+        <v>129659</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>195928</v>
+        <v>196639</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>238963</v>
+        <v>236631</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>126110</v>
+        <v>126731</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>240066</v>
+        <v>241022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>304151</v>
+        <v>303275</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>298594</v>
+        <v>295783</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>186832</v>
+        <v>188300</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>362271</v>
+        <v>359394</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>485877</v>
+        <v>484499</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>518319</v>
+        <v>521897</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>299445</v>
+        <v>301472</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56339</v>
+        <v>54307</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>82057</v>
+        <v>80427</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>82759</v>
+        <v>83260</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>27118</v>
+        <v>25248</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>380935</v>
+        <v>382523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>422976</v>
+        <v>421766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>341494</v>
+        <v>343292</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100473</v>
+        <v>103544</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>448233</v>
+        <v>448300</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>515756</v>
+        <v>517465</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>434666</v>
+        <v>436157</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>137558</v>
+        <v>137899</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>84581</v>
+        <v>84261</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>112261</v>
+        <v>112008</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>113176</v>
+        <v>115756</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62754</v>
+        <v>62016</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>445714</v>
+        <v>447317</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>485536</v>
+        <v>487443</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>406049</v>
+        <v>406694</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>143016</v>
+        <v>145973</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>519586</v>
+        <v>519745</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>590854</v>
+        <v>589884</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>508957</v>
+        <v>507354</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>190008</v>
+        <v>194945</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>912085</v>
+        <v>910325</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1304757</v>
+        <v>1291672</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1159919</v>
+        <v>1165212</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>590393</v>
+        <v>590667</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1109092</v>
+        <v>1105504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1355195</v>
+        <v>1353440</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1237267</v>
+        <v>1238222</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>686430</v>
+        <v>685908</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2049122</v>
+        <v>2053463</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2690770</v>
+        <v>2693741</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2430915</v>
+        <v>2430358</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1305982</v>
+        <v>1296391</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1023665</v>
+        <v>1018091</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1426696</v>
+        <v>1417912</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1277145</v>
+        <v>1279625</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>686643</v>
+        <v>688505</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1219811</v>
+        <v>1219779</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1471520</v>
+        <v>1473087</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1356974</v>
+        <v>1356219</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>775212</v>
+        <v>773973</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2204996</v>
+        <v>2203163</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2860222</v>
+        <v>2862150</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2601290</v>
+        <v>2589117</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1441065</v>
+        <v>1430496</v>
       </c>
     </row>
     <row r="32">
